--- a/其他/datasetAttTable/Tracking-dataset-attributes.xlsx
+++ b/其他/datasetAttTable/Tracking-dataset-attributes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\hyj-small-repo\v4r-matlab-plot\其他\datasetAttTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62698ACD-56AA-4AF5-B83A-C8BA5CCD40F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C953632-E9FB-440F-9C2D-BCA9ACDF52B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="371">
   <si>
     <t>dataSeq</t>
   </si>
@@ -1144,6 +1144,10 @@
   </si>
   <si>
     <t>uav0000368_03612_s</t>
+  </si>
+  <si>
+    <t>VC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1351,8 +1355,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,6 +1364,8 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1600,12 +1604,12 @@
       <c r="A1" s="1">
         <v>20200103</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="G1" s="3"/>
       <c r="I1" s="3"/>
     </row>
@@ -1613,12 +1617,12 @@
       <c r="A2" s="5">
         <v>20200227</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
     </row>
@@ -10396,7 +10400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -10440,7 +10444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -10528,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -10704,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -10748,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -10792,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -10880,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -10924,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -10968,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -11012,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -11056,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
@@ -11100,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -11144,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -11232,7 +11236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -11276,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>66</v>
       </c>
@@ -11364,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
@@ -11408,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>74</v>
       </c>
@@ -11452,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
@@ -11496,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>80</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>87</v>
       </c>
@@ -15869,7 +15873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -15913,7 +15917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>185</v>
       </c>
@@ -15957,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>186</v>
       </c>
@@ -16001,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>187</v>
       </c>
@@ -16045,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
@@ -16089,7 +16093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>188</v>
       </c>
@@ -16133,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>189</v>
       </c>
@@ -16177,7 +16181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>111</v>
       </c>
@@ -16221,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>190</v>
       </c>
@@ -16265,7 +16269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>191</v>
       </c>
@@ -16309,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>192</v>
       </c>
@@ -16353,7 +16357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>193</v>
       </c>
@@ -16397,7 +16401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>194</v>
       </c>
@@ -16441,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -16485,7 +16489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>196</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>141</v>
       </c>
@@ -16573,7 +16577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>197</v>
       </c>
@@ -16617,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>198</v>
       </c>
@@ -16661,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>199</v>
       </c>
@@ -16705,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>200</v>
       </c>
@@ -16801,7 +16805,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>206</v>
       </c>
@@ -16836,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>207</v>
       </c>
@@ -16871,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
@@ -16906,7 +16910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>209</v>
       </c>
@@ -16941,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>210</v>
       </c>
@@ -16976,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
@@ -17011,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>212</v>
       </c>
@@ -17046,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>213</v>
       </c>
@@ -17081,7 +17085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>214</v>
       </c>
@@ -17116,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>215</v>
       </c>
@@ -17151,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>216</v>
       </c>
@@ -17186,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>217</v>
       </c>
@@ -17221,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>218</v>
       </c>
@@ -17256,7 +17260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>219</v>
       </c>
@@ -17291,7 +17295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>220</v>
       </c>
@@ -17326,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>221</v>
       </c>
@@ -17361,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>222</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>223</v>
       </c>
@@ -17431,7 +17435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>224</v>
       </c>
@@ -17466,7 +17470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -17501,7 +17505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>226</v>
       </c>
@@ -17536,7 +17540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>227</v>
       </c>
@@ -17571,7 +17575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>228</v>
       </c>
@@ -17606,7 +17610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>229</v>
       </c>
@@ -17641,7 +17645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>230</v>
       </c>
@@ -17676,7 +17680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -17711,7 +17715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>232</v>
       </c>
@@ -17746,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>233</v>
       </c>
@@ -18613,7 +18617,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>264</v>
       </c>
@@ -18654,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>265</v>
       </c>
@@ -18695,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>266</v>
       </c>
@@ -18736,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>267</v>
       </c>
@@ -18777,7 +18781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>268</v>
       </c>
@@ -18818,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>269</v>
       </c>
@@ -18859,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>270</v>
       </c>
@@ -18900,7 +18904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>271</v>
       </c>
@@ -18941,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>272</v>
       </c>
@@ -18982,7 +18986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>273</v>
       </c>
@@ -19023,7 +19027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>274</v>
       </c>
@@ -19064,7 +19068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>275</v>
       </c>
@@ -19105,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>276</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>277</v>
       </c>
@@ -19187,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>278</v>
       </c>
@@ -19228,7 +19232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>279</v>
       </c>
@@ -19269,7 +19273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>280</v>
       </c>
@@ -19310,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>281</v>
       </c>
@@ -19351,7 +19355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>282</v>
       </c>
@@ -19392,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>283</v>
       </c>
@@ -19433,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>284</v>
       </c>
@@ -19474,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>285</v>
       </c>
@@ -19515,7 +19519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>286</v>
       </c>
@@ -19556,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>287</v>
       </c>
@@ -19597,7 +19601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>288</v>
       </c>
@@ -19638,7 +19642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>289</v>
       </c>
@@ -19679,7 +19683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>290</v>
       </c>
@@ -19720,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>291</v>
       </c>
@@ -21496,8 +21500,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21506,1591 +21510,1592 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>12</v>
+      <c r="N1" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>369</v>
       </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17">
-        <v>1</v>
-      </c>
-      <c r="L2" s="17">
-        <v>1</v>
-      </c>
-      <c r="M2" s="17">
-        <v>1</v>
-      </c>
-      <c r="N2" s="17">
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>581</v>
       </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18">
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>97</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17">
-        <v>0</v>
-      </c>
-      <c r="N4" s="17">
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>457</v>
       </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>1</v>
-      </c>
-      <c r="L5" s="18">
-        <v>1</v>
-      </c>
-      <c r="M5" s="18">
-        <v>1</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>721</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <v>1</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1</v>
-      </c>
-      <c r="M6" s="17">
-        <v>1</v>
-      </c>
-      <c r="N6" s="17">
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>625</v>
       </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>361</v>
       </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
-        <v>1</v>
-      </c>
-      <c r="L8" s="17">
-        <v>1</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17">
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>649</v>
       </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>974</v>
       </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>1</v>
-      </c>
-      <c r="K10" s="17">
-        <v>1</v>
-      </c>
-      <c r="L10" s="17">
-        <v>1</v>
-      </c>
-      <c r="M10" s="17">
-        <v>1</v>
-      </c>
-      <c r="N10" s="17">
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>1297</v>
       </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-      <c r="N11" s="18">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>1920</v>
       </c>
-      <c r="C12" s="17">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <v>1</v>
-      </c>
-      <c r="L12" s="17">
-        <v>1</v>
-      </c>
-      <c r="M12" s="17">
-        <v>1</v>
-      </c>
-      <c r="N12" s="17">
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+      <c r="M12" s="15">
+        <v>1</v>
+      </c>
+      <c r="N12" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="16">
         <v>1611</v>
       </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <v>1</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18">
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>553</v>
       </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
-        <v>1</v>
-      </c>
-      <c r="M14" s="17">
-        <v>1</v>
-      </c>
-      <c r="N14" s="17">
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1</v>
+      </c>
+      <c r="N14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>369</v>
       </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
-        <v>1</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <v>0</v>
-      </c>
-      <c r="N15" s="18">
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>2332</v>
       </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
-        <v>1</v>
-      </c>
-      <c r="L16" s="17">
-        <v>1</v>
-      </c>
-      <c r="M16" s="17">
-        <v>1</v>
-      </c>
-      <c r="N16" s="17">
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>1</v>
+      </c>
+      <c r="N16" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="16">
         <v>671</v>
       </c>
-      <c r="C17" s="18">
-        <v>0</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18">
-        <v>0</v>
-      </c>
-      <c r="K17" s="18">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
-        <v>0</v>
-      </c>
-      <c r="M17" s="18">
-        <v>1</v>
-      </c>
-      <c r="N17" s="18">
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>1868</v>
       </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
-        <v>1</v>
-      </c>
-      <c r="M18" s="17">
-        <v>1</v>
-      </c>
-      <c r="N18" s="17">
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1</v>
+      </c>
+      <c r="M18" s="15">
+        <v>1</v>
+      </c>
+      <c r="N18" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>1251</v>
       </c>
-      <c r="C19" s="18">
-        <v>0</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="18">
-        <v>0</v>
-      </c>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
-      <c r="L19" s="18">
-        <v>0</v>
-      </c>
-      <c r="M19" s="18">
-        <v>1</v>
-      </c>
-      <c r="N19" s="18">
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>1</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1</v>
+      </c>
+      <c r="N19" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>1101</v>
       </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>1</v>
-      </c>
-      <c r="N20" s="17">
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1</v>
+      </c>
+      <c r="N20" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="16">
         <v>1626</v>
       </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0</v>
-      </c>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="18">
-        <v>1</v>
-      </c>
-      <c r="N21" s="18">
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1</v>
+      </c>
+      <c r="N21" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>1169</v>
       </c>
-      <c r="C22" s="17">
-        <v>1</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22" s="17">
-        <v>0</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1</v>
-      </c>
-      <c r="N22" s="17">
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1</v>
+      </c>
+      <c r="N22" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <v>2783</v>
       </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1</v>
-      </c>
-      <c r="E23" s="18">
-        <v>1</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
-        <v>1</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0</v>
-      </c>
-      <c r="K23" s="18">
-        <v>1</v>
-      </c>
-      <c r="L23" s="18">
-        <v>0</v>
-      </c>
-      <c r="M23" s="18">
-        <v>1</v>
-      </c>
-      <c r="N23" s="18">
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1</v>
+      </c>
+      <c r="N23" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>2569</v>
       </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
-      <c r="K24" s="17">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
-        <v>0</v>
-      </c>
-      <c r="M24" s="17">
-        <v>1</v>
-      </c>
-      <c r="N24" s="17">
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1</v>
+      </c>
+      <c r="N24" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="16">
         <v>828</v>
       </c>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>1</v>
-      </c>
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
-      <c r="J25" s="18">
-        <v>1</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
-      <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>1</v>
-      </c>
-      <c r="N25" s="18">
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <v>1</v>
+      </c>
+      <c r="N25" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>253</v>
       </c>
-      <c r="C26" s="17">
-        <v>1</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>1</v>
-      </c>
-      <c r="K26" s="17">
-        <v>1</v>
-      </c>
-      <c r="L26" s="17">
-        <v>0</v>
-      </c>
-      <c r="M26" s="17">
-        <v>1</v>
-      </c>
-      <c r="N26" s="17">
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>793</v>
       </c>
-      <c r="C27" s="18">
-        <v>0</v>
-      </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-      <c r="K27" s="18">
-        <v>1</v>
-      </c>
-      <c r="L27" s="18">
-        <v>0</v>
-      </c>
-      <c r="M27" s="18">
-        <v>0</v>
-      </c>
-      <c r="N27" s="18">
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1</v>
+      </c>
+      <c r="K27" s="16">
+        <v>1</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>392</v>
       </c>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17">
-        <v>0</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
-      <c r="M28" s="17">
-        <v>1</v>
-      </c>
-      <c r="N28" s="17">
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>1</v>
+      </c>
+      <c r="N28" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>392</v>
       </c>
-      <c r="C29" s="18">
-        <v>0</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0</v>
-      </c>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18">
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <v>1</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <v>0</v>
-      </c>
-      <c r="N29" s="18">
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>529</v>
       </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17">
-        <v>0</v>
-      </c>
-      <c r="L30" s="17">
-        <v>0</v>
-      </c>
-      <c r="M30" s="17">
-        <v>1</v>
-      </c>
-      <c r="N30" s="17">
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>1</v>
+      </c>
+      <c r="N30" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>191</v>
       </c>
-      <c r="C31" s="18">
-        <v>1</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0</v>
-      </c>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0</v>
-      </c>
-      <c r="I31" s="18">
-        <v>0</v>
-      </c>
-      <c r="J31" s="18">
-        <v>0</v>
-      </c>
-      <c r="K31" s="18">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
-        <v>0</v>
-      </c>
-      <c r="M31" s="18">
-        <v>1</v>
-      </c>
-      <c r="N31" s="18">
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>1</v>
+      </c>
+      <c r="N31" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="15">
         <v>438</v>
       </c>
-      <c r="C32" s="17">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0</v>
-      </c>
-      <c r="K32" s="17">
-        <v>1</v>
-      </c>
-      <c r="L32" s="17">
-        <v>0</v>
-      </c>
-      <c r="M32" s="17">
-        <v>0</v>
-      </c>
-      <c r="N32" s="17">
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>1</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="16">
         <v>1322</v>
       </c>
-      <c r="C33" s="18">
-        <v>0</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
-      <c r="E33" s="18">
-        <v>1</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <v>1</v>
-      </c>
-      <c r="I33" s="18">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <v>0</v>
-      </c>
-      <c r="K33" s="18">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
-        <v>0</v>
-      </c>
-      <c r="N33" s="18">
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>1</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>1429</v>
       </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17">
-        <v>1</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <v>1</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
-        <v>0</v>
-      </c>
-      <c r="K34" s="17">
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
-        <v>1</v>
-      </c>
-      <c r="N34" s="17">
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>1</v>
+      </c>
+      <c r="N34" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="16">
         <v>311</v>
       </c>
-      <c r="C35" s="18">
-        <v>1</v>
-      </c>
-      <c r="D35" s="18">
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1</v>
-      </c>
-      <c r="H35" s="18">
-        <v>1</v>
-      </c>
-      <c r="I35" s="18">
-        <v>0</v>
-      </c>
-      <c r="J35" s="18">
-        <v>1</v>
-      </c>
-      <c r="K35" s="18">
-        <v>1</v>
-      </c>
-      <c r="L35" s="18">
-        <v>0</v>
-      </c>
-      <c r="M35" s="18">
-        <v>1</v>
-      </c>
-      <c r="N35" s="18">
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>1</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>1</v>
+      </c>
+      <c r="N35" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>90</v>
       </c>
-      <c r="C36" s="17">
-        <v>1</v>
-      </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17">
-        <v>1</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
-        <v>1</v>
-      </c>
-      <c r="K36" s="17">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="17">
-        <v>1</v>
-      </c>
-      <c r="N36" s="17">
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>1</v>
+      </c>
+      <c r="N36" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>